--- a/Excel/1.xlsx
+++ b/Excel/1.xlsx
@@ -730,7 +730,7 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
